--- a/Task4.xlsx
+++ b/Task4.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>mytable</t>
+    <t>test1</t>
   </si>
   <si>
     <t>ID</t>
@@ -29,13 +29,13 @@
     <t>Result</t>
   </si>
   <si>
-    <t>Test1</t>
+    <t>TEst1</t>
   </si>
   <si>
     <t>Test2</t>
   </si>
   <si>
-    <t>TEST1</t>
+    <t>test2</t>
   </si>
 </sst>
 </file>
@@ -86,7 +86,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.3359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="5.58203125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="2.9453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.12890625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="12.7578125" customWidth="true" bestFit="true"/>

--- a/Task4.xlsx
+++ b/Task4.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>test1</t>
+    <t>t</t>
   </si>
   <si>
     <t>ID</t>
@@ -29,13 +29,13 @@
     <t>Result</t>
   </si>
   <si>
-    <t>TEst1</t>
+    <t>First</t>
   </si>
   <si>
-    <t>Test2</t>
+    <t>Second</t>
   </si>
   <si>
-    <t>test2</t>
+    <t>second</t>
   </si>
 </sst>
 </file>
@@ -86,11 +86,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="5.58203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="1.7734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="2.9453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.12890625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="12.7578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="6.5859375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="7.39453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
